--- a/publipostage/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
+++ b/publipostage/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT02822911</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Benefit of Carbohydrate Deficient Transferrin to Detect Chronic Alcohol Abuse in the Elderly. A French Multicentered Prospective Interventional Study.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Caesar</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -525,32 +535,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCT02821637</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NCT02822209</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Impact of an Effort Rehabilitation Program for Overweight or Obese Children and Teens on Quality of Life and Wellbeing: A French Monocentric Prospective Study</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PRESEVAL</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
+          <t>Evaluation of the Impact of a Coordinating Nurse in a Personalized Care Program on Quality of Care, Coordination of the Actors and on Quality of Life for Patients With Lung Cancer. A French Randomized Monocentric Prospective Study</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>EVIDEC</t>
+        </is>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -562,32 +577,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCT02822209</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NCT02821637</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Evaluation of the Impact of a Coordinating Nurse in a Personalized Care Program on Quality of Care, Coordination of the Actors and on Quality of Life for Patients With Lung Cancer. A French Randomized Monocentric Prospective Study</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EVIDEC</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
+          <t>Impact of an Effort Rehabilitation Program for Overweight or Obese Children and Teens on Quality of Life and Wellbeing: A French Monocentric Prospective Study</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PRESEVAL</t>
+        </is>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -599,32 +619,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT02946372</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Transposition of Internal Limiting Membrane in the Treatment of Macular Holes. A Descriptive Pilot Study</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>ILMT</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -636,32 +661,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT03177096</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Impact of the Continuous Measurement of Blood Glucose on Insulin Pump on Child Quality of Life With Type 1 Diabetes. A French Monocentric Prospective Study (IM-CAPT)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>IM-CAPT</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -673,32 +703,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT02970357</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Evaluation of the Impact of a Therapeutic Education Program for Children With Type 1 Diabetes. A French Monocentric Prospective Study. Pilot Study</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>PROGETE</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -710,32 +745,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT03594851</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Evaluation of the Benefits of Individualized Advice Administration on Quality of Sleep for the Elderly Living at Home Prospective, Monocentric and Open Study</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>CISPAD</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -747,32 +787,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT05007249</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Benefit of the Chalaxie Pedagogical Tool in the Management of Overweight or Obese Children With Intellectual Disability : a Pilot Monocentric Prospective Study.</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>CHALAXIE</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -784,32 +829,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT05373849</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Evaluation of the Efficacy of Aromatherapy on the Well-being of Hospital Healthcare Professionals: a Randomized Cross-over Trial</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>HERBAS</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -821,32 +871,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>NCT04529395</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Impact of Aromatherapy on the Delirium of Patients in Intensive Care Unit</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>AROMADELI</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
+++ b/publipostage/054jcxz87/liste_essais_cliniques_identifies_054jcxz87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +578,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +625,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +672,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +719,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -736,6 +766,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -778,6 +813,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -820,6 +860,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -862,6 +907,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -903,6 +953,11 @@
       </c>
       <c r="J11" t="b">
         <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
   </sheetData>
